--- a/設計書/C班進捗状況.xlsx
+++ b/設計書/C班進捗状況.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>作業概要</t>
     <rPh sb="0" eb="2">
@@ -306,6 +306,10 @@
       <t>フクダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -446,35 +450,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -761,7 +737,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -806,10 +782,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43811</v>
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -836,10 +812,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="4">
-        <v>43811</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -1049,7 +1025,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C5:F20">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E5=1</formula>
     </cfRule>
   </conditionalFormatting>
